--- a/TAB_VT_CAMFRIGO_16OM_RESUMO.xlsx
+++ b/TAB_VT_CAMFRIGO_16OM_RESUMO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brito\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive britointeb\PROGRAMACAO\NOTEBOOKS\STREAMLIT\PJT_CAM_FRIGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F740D-7333-4B1A-B480-F4E71308F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C77035-ED40-4794-A753-FF8DA2809469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{2689512C-D853-466F-A95B-8371DFBAC10C}"/>
+    <workbookView xWindow="-23820" yWindow="2683" windowWidth="17280" windowHeight="12317" xr2:uid="{2689512C-D853-466F-A95B-8371DFBAC10C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>2º CGeo</t>
   </si>
   <si>
-    <t>Iº RCGd</t>
-  </si>
-  <si>
     <t>11º D Sup</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>VALOR ESTIMADO</t>
+  </si>
+  <si>
+    <t>1º RCGd</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -526,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -585,7 +585,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
